--- a/pr-10.xlsx
+++ b/pr-10.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
+    <t>Расчет дохода сотрудников оргазнизации</t>
+  </si>
+  <si>
+    <t>Таблица констант:</t>
+  </si>
+  <si>
+    <t>Необлагаемый налолгом доход</t>
+  </si>
+  <si>
     <t>% подоходного налога</t>
   </si>
   <si>
     <t>% отчисления в благотворительный фонд</t>
   </si>
   <si>
+    <t>Таблица расчета заработной платы</t>
+  </si>
+  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -37,6 +54,12 @@
     <t>Отчисления в благотворительный фонд</t>
   </si>
   <si>
+    <t>Всего удержано</t>
+  </si>
+  <si>
+    <t>К выдаче</t>
+  </si>
+  <si>
     <t>Петров В.С.</t>
   </si>
   <si>
@@ -62,24 +85,6 @@
   </si>
   <si>
     <t>Итого:</t>
-  </si>
-  <si>
-    <t>Расчет дохода сотрудников оргазнизации</t>
-  </si>
-  <si>
-    <t>Таблица констант:</t>
-  </si>
-  <si>
-    <t>Необлагаемый налолгом доход</t>
-  </si>
-  <si>
-    <t>Таблица расчета заработной платы</t>
-  </si>
-  <si>
-    <t>К выдаче</t>
-  </si>
-  <si>
-    <t>Всего удержано</t>
   </si>
 </sst>
 </file>
@@ -277,23 +282,26 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,15 +329,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -352,44 +357,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -422,9 +427,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -463,166 +468,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -631,7 +612,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,329 +626,328 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>0.03</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10" t="s">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14">
         <v>1250</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <f>(C10-C3)*C4</f>
         <v>110.5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <f>C10*C5</f>
         <v>37.5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <f>D10-E10</f>
         <v>73</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="15">
         <f>C10-F10</f>
         <v>1177</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14">
         <v>1500</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <f>(C11-C3)*C4</f>
         <v>143</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <f>C11*C5</f>
         <v>45</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="14">
         <f t="shared" ref="F11:F17" si="0">D11-E11</f>
         <v>98</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <f t="shared" ref="G11:G17" si="1">C11-F11</f>
         <v>1402</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14">
         <v>1750</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <f>(C12-C3)*C4</f>
         <v>175.5</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <f>C12*C5</f>
         <v>52.5</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="15">
         <f t="shared" si="1"/>
         <v>1627</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14">
         <v>1862</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <f>(C13-C3)*C4</f>
         <v>190.06</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <f>C13*C5</f>
         <v>55.86</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>134.19999999999999</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <f t="shared" si="1"/>
         <v>1727.8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="14">
         <v>2000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <f>(C14-C3)*C4</f>
         <v>208</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <f>C14*C5</f>
         <v>60</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="15">
         <f t="shared" si="1"/>
         <v>1852</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>6</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="14">
         <v>2250</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <f>(C15-C3)*C4</f>
         <v>240.5</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <f>C15*C5</f>
         <v>67.5</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
         <v>2077</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>7</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14">
         <v>2750</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <f>(C16-C3)*C4</f>
         <v>305.5</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <f>C16*C5</f>
         <v>82.5</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <f t="shared" si="1"/>
         <v>2527</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14">
         <v>3450</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <f>(C17-C3)*C4</f>
         <v>396.5</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <f>C17*C5</f>
         <v>103.5</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="15">
         <f t="shared" si="1"/>
         <v>3157</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18">
         <f>SUM(C10:C17)</f>
         <v>16812</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <f t="shared" ref="D18:G18" si="2">SUM(D10:D17)</f>
         <v>1769.56</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="18">
         <f t="shared" si="2"/>
         <v>504.36</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <f t="shared" si="2"/>
         <v>1265.2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <f t="shared" si="2"/>
         <v>15546.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>